--- a/002/dao/xiaotu/chuzhong_kexue/八下期中/005.xlsx
+++ b/002/dao/xiaotu/chuzhong_kexue/八下期中/005.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28702"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\初中科学试卷\试卷分析\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangpeng/Documents/test/test6/002/dao/xiaotu/chuzhong_kexue/八下期中/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15720" windowHeight="5790"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1443,43 +1450,36 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1591,6 +1591,16 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1605,16 +1615,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1676,12 +1676,12 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="DengXian Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -1711,12 +1711,12 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="DengXian" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -1922,32 +1922,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K205" workbookViewId="0">
-      <selection activeCell="Z9" sqref="Z9"/>
+    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
+      <selection activeCell="J172" sqref="J172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="9" width="9" style="1"/>
-    <col min="10" max="10" width="36.125" style="1" customWidth="1"/>
-    <col min="11" max="13" width="8.875" style="2" customWidth="1"/>
-    <col min="14" max="16" width="8.875" style="3" customWidth="1"/>
-    <col min="17" max="19" width="8.875" style="4" customWidth="1"/>
-    <col min="20" max="22" width="8.875" style="5" customWidth="1"/>
-    <col min="23" max="25" width="8.875" style="6" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" style="1" customWidth="1"/>
+    <col min="11" max="13" width="8.83203125" style="2" customWidth="1"/>
+    <col min="14" max="16" width="8.83203125" style="3" customWidth="1"/>
+    <col min="17" max="19" width="8.83203125" style="4" customWidth="1"/>
+    <col min="20" max="22" width="8.83203125" style="5" customWidth="1"/>
+    <col min="23" max="25" width="8.83203125" style="6" customWidth="1"/>
+    <col min="26" max="26" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
-      <c r="A1" s="22"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="15"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
       <c r="L1" s="2">
         <v>100</v>
       </c>
@@ -1964,77 +1965,77 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
-      <c r="A2" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I2" s="20" t="s">
+      <c r="I2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="J2" s="20" t="s">
+      <c r="J2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="16" t="s">
+      <c r="L2" s="19"/>
+      <c r="M2" s="19"/>
+      <c r="N2" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="16"/>
-      <c r="P2" s="16"/>
-      <c r="Q2" s="17" t="s">
+      <c r="O2" s="20"/>
+      <c r="P2" s="20"/>
+      <c r="Q2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="18" t="s">
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="19" t="s">
+      <c r="U2" s="22"/>
+      <c r="V2" s="22"/>
+      <c r="W2" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="X2" s="19"/>
-      <c r="Y2" s="19"/>
-      <c r="Z2" s="23" t="s">
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="16" t="s">
         <v>471</v>
       </c>
     </row>
-    <row r="3" spans="1:26">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A3" s="18"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="18"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
       <c r="K3" s="7" t="s">
         <v>15</v>
       </c>
@@ -2080,9 +2081,9 @@
       <c r="Y3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="Z3" s="23"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="Z3" s="16"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -2118,7 +2119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:26">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
@@ -2160,7 +2161,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="6" spans="1:26">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -2196,7 +2197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:26">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
@@ -2232,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:26">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2274,7 +2275,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="9" spans="1:26">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2310,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:26">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -2346,7 +2347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:26">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
@@ -2388,7 +2389,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="12" spans="1:26">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
@@ -2424,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:26">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2460,7 +2461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:26">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -2496,7 +2497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:26">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
@@ -2532,7 +2533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:26">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -2568,7 +2569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:26">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -2604,7 +2605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:26">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:26">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
@@ -2676,7 +2677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -2748,7 +2749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
@@ -2784,7 +2785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>18</v>
       </c>
@@ -2820,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>18</v>
       </c>
@@ -2856,7 +2857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:26">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>18</v>
       </c>
@@ -2892,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
@@ -2928,7 +2929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>18</v>
       </c>
@@ -2964,7 +2965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>18</v>
       </c>
@@ -3000,7 +3001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:26">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>18</v>
       </c>
@@ -3036,7 +3037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:26">
+    <row r="30" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>18</v>
       </c>
@@ -3072,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:26">
+    <row r="31" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>18</v>
       </c>
@@ -3108,7 +3109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:26">
+    <row r="32" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -3144,7 +3145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:26">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>18</v>
       </c>
@@ -3180,7 +3181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:26">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -3216,7 +3217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:26">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
@@ -3252,7 +3253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:26">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>18</v>
       </c>
@@ -3288,7 +3289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:26">
+    <row r="37" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>18</v>
       </c>
@@ -3324,7 +3325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:26">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>18</v>
       </c>
@@ -3360,7 +3361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:26">
+    <row r="39" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>18</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:26">
+    <row r="40" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>18</v>
       </c>
@@ -3432,7 +3433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:26">
+    <row r="41" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>18</v>
       </c>
@@ -3468,7 +3469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:26">
+    <row r="42" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>18</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:26">
+    <row r="43" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>18</v>
       </c>
@@ -3540,7 +3541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:26">
+    <row r="44" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>18</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:26">
+    <row r="45" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>18</v>
       </c>
@@ -3612,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:26">
+    <row r="46" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>18</v>
       </c>
@@ -3648,7 +3649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:26">
+    <row r="47" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>18</v>
       </c>
@@ -3684,7 +3685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:26">
+    <row r="48" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>18</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:26">
+    <row r="49" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>18</v>
       </c>
@@ -3756,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:26">
+    <row r="50" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>18</v>
       </c>
@@ -3792,7 +3793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:26">
+    <row r="51" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>18</v>
       </c>
@@ -3828,7 +3829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:26">
+    <row r="52" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>18</v>
       </c>
@@ -3864,7 +3865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:26">
+    <row r="53" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>18</v>
       </c>
@@ -3900,7 +3901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:26">
+    <row r="54" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>18</v>
       </c>
@@ -3936,7 +3937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:26">
+    <row r="55" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>18</v>
       </c>
@@ -3972,7 +3973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:26">
+    <row r="56" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>18</v>
       </c>
@@ -4008,7 +4009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:26">
+    <row r="57" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>18</v>
       </c>
@@ -4065,7 +4066,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="58" spans="1:26">
+    <row r="58" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>18</v>
       </c>
@@ -4128,7 +4129,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="59" spans="1:26">
+    <row r="59" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>18</v>
       </c>
@@ -4185,7 +4186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:26">
+    <row r="60" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>18</v>
       </c>
@@ -4236,7 +4237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:26">
+    <row r="61" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>18</v>
       </c>
@@ -4299,7 +4300,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="62" spans="1:26">
+    <row r="62" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>18</v>
       </c>
@@ -4374,7 +4375,7 @@
         <v>4.0666666666666664</v>
       </c>
     </row>
-    <row r="63" spans="1:26">
+    <row r="63" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>18</v>
       </c>
@@ -4425,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:26">
+    <row r="64" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>18</v>
       </c>
@@ -4482,7 +4483,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="65" spans="1:26">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>18</v>
       </c>
@@ -4533,7 +4534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:26">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>18</v>
       </c>
@@ -4584,7 +4585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:26">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>18</v>
       </c>
@@ -4653,7 +4654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:26">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>18</v>
       </c>
@@ -4716,7 +4717,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="69" spans="1:26">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>18</v>
       </c>
@@ -4773,7 +4774,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="70" spans="1:26">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>18</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="71" spans="1:26">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>18</v>
       </c>
@@ -4911,7 +4912,7 @@
         <v>1.7333333333333334</v>
       </c>
     </row>
-    <row r="72" spans="1:26">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>18</v>
       </c>
@@ -4986,7 +4987,7 @@
         <v>4.0666666666666664</v>
       </c>
     </row>
-    <row r="73" spans="1:26">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>18</v>
       </c>
@@ -5055,7 +5056,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="74" spans="1:26">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>18</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:26">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>18</v>
       </c>
@@ -5157,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:26">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>18</v>
       </c>
@@ -5226,7 +5227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:26">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>18</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:26">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>18</v>
       </c>
@@ -5334,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:26">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>18</v>
       </c>
@@ -5415,7 +5416,7 @@
         <v>3.8333333333333335</v>
       </c>
     </row>
-    <row r="80" spans="1:26">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>18</v>
       </c>
@@ -5496,7 +5497,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="81" spans="1:26">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>18</v>
       </c>
@@ -5553,7 +5554,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="82" spans="1:26">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>18</v>
       </c>
@@ -5634,7 +5635,7 @@
         <v>2.5333333333333337</v>
       </c>
     </row>
-    <row r="83" spans="1:26">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>18</v>
       </c>
@@ -5685,7 +5686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:26">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>18</v>
       </c>
@@ -5736,7 +5737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:26">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>18</v>
       </c>
@@ -5799,7 +5800,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="86" spans="1:26">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>18</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>4.7333333333333343</v>
       </c>
     </row>
-    <row r="87" spans="1:26">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>18</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>3.3999999999999995</v>
       </c>
     </row>
-    <row r="88" spans="1:26">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>18</v>
       </c>
@@ -6006,7 +6007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:26">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>18</v>
       </c>
@@ -6057,7 +6058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:26">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>18</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="91" spans="1:26">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>18</v>
       </c>
@@ -6183,7 +6184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:26">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>18</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:26">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>18</v>
       </c>
@@ -6285,7 +6286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:26">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>18</v>
       </c>
@@ -6336,7 +6337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:26">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>18</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:26">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>18</v>
       </c>
@@ -6438,7 +6439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>18</v>
       </c>
@@ -6489,7 +6490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>18</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>18</v>
       </c>
@@ -6577,7 +6578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>18</v>
       </c>
@@ -6623,7 +6624,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>18</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>18</v>
       </c>
@@ -6706,7 +6707,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>18</v>
       </c>
@@ -6743,7 +6744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>18</v>
       </c>
@@ -6806,7 +6807,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>18</v>
       </c>
@@ -6869,7 +6870,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>18</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>18</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>18</v>
       </c>
@@ -7022,7 +7023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>18</v>
       </c>
@@ -7073,7 +7074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>18</v>
       </c>
@@ -7136,7 +7137,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>18</v>
       </c>
@@ -7187,7 +7188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>18</v>
       </c>
@@ -7244,7 +7245,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>18</v>
       </c>
@@ -7313,7 +7314,7 @@
         <v>1.4666666666666668</v>
       </c>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>18</v>
       </c>
@@ -7388,7 +7389,7 @@
         <v>3.0666666666666664</v>
       </c>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>18</v>
       </c>
@@ -7439,7 +7440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>18</v>
       </c>
@@ -7508,7 +7509,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>18</v>
       </c>
@@ -7559,7 +7560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>18</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>0.73333333333333339</v>
       </c>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>18</v>
       </c>
@@ -7673,7 +7674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>18</v>
       </c>
@@ -7748,7 +7749,7 @@
         <v>1.4666666666666668</v>
       </c>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>18</v>
       </c>
@@ -7811,7 +7812,7 @@
         <v>1.1333333333333333</v>
       </c>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>18</v>
       </c>
@@ -7874,7 +7875,7 @@
         <v>1.7333333333333334</v>
       </c>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>18</v>
       </c>
@@ -7925,7 +7926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>18</v>
       </c>
@@ -7994,7 +7995,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>18</v>
       </c>
@@ -8045,7 +8046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>18</v>
       </c>
@@ -8096,7 +8097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>18</v>
       </c>
@@ -8171,7 +8172,7 @@
         <v>6.6000000000000005</v>
       </c>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>18</v>
       </c>
@@ -8228,7 +8229,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>18</v>
       </c>
@@ -8279,7 +8280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>18</v>
       </c>
@@ -8360,7 +8361,7 @@
         <v>15.633333333333335</v>
       </c>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>18</v>
       </c>
@@ -8429,7 +8430,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>18</v>
       </c>
@@ -8486,7 +8487,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>18</v>
       </c>
@@ -8543,7 +8544,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>18</v>
       </c>
@@ -8594,7 +8595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>18</v>
       </c>
@@ -8645,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>18</v>
       </c>
@@ -8696,7 +8697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>18</v>
       </c>
@@ -8747,7 +8748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>18</v>
       </c>
@@ -8810,7 +8811,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
@@ -8861,7 +8862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -8918,7 +8919,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
@@ -8987,7 +8988,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -9038,7 +9039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -9107,7 +9108,7 @@
         <v>1.0666666666666667</v>
       </c>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
@@ -9182,7 +9183,7 @@
         <v>3.3999999999999995</v>
       </c>
     </row>
-    <row r="145" spans="1:26">
+    <row r="145" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>18</v>
       </c>
@@ -9239,7 +9240,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="146" spans="1:26">
+    <row r="146" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>18</v>
       </c>
@@ -9296,7 +9297,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="147" spans="1:26">
+    <row r="147" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>18</v>
       </c>
@@ -9347,7 +9348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:26">
+    <row r="148" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>18</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:26">
+    <row r="149" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>18</v>
       </c>
@@ -9461,7 +9462,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="150" spans="1:26">
+    <row r="150" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>18</v>
       </c>
@@ -9512,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:26">
+    <row r="151" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>18</v>
       </c>
@@ -9563,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:26">
+    <row r="152" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>18</v>
       </c>
@@ -9620,7 +9621,7 @@
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="153" spans="1:26">
+    <row r="153" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>18</v>
       </c>
@@ -9677,7 +9678,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="154" spans="1:26">
+    <row r="154" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>18</v>
       </c>
@@ -9734,7 +9735,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="155" spans="1:26">
+    <row r="155" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>18</v>
       </c>
@@ -9785,7 +9786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:26">
+    <row r="156" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>18</v>
       </c>
@@ -9836,7 +9837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:26">
+    <row r="157" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>18</v>
       </c>
@@ -9887,7 +9888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:26">
+    <row r="158" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>18</v>
       </c>
@@ -9938,7 +9939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:26">
+    <row r="159" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>18</v>
       </c>
@@ -9989,7 +9990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:26">
+    <row r="160" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>18</v>
       </c>
@@ -10025,7 +10026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:26">
+    <row r="161" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>18</v>
       </c>
@@ -10061,7 +10062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:26">
+    <row r="162" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>18</v>
       </c>
@@ -10097,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:26">
+    <row r="163" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>18</v>
       </c>
@@ -10133,7 +10134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:26">
+    <row r="164" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>18</v>
       </c>
@@ -10169,7 +10170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:26">
+    <row r="165" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -10205,7 +10206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:26">
+    <row r="166" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>18</v>
       </c>
@@ -10241,7 +10242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:26">
+    <row r="167" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>18</v>
       </c>
@@ -10277,7 +10278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:26">
+    <row r="168" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>18</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="169" spans="1:26">
+    <row r="169" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>18</v>
       </c>
@@ -10355,7 +10356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:26">
+    <row r="170" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J170" s="1" t="s">
         <v>469</v>
       </c>
@@ -10370,7 +10371,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="171" spans="1:26">
+    <row r="171" spans="1:26" x14ac:dyDescent="0.2">
       <c r="J171" s="13" t="s">
         <v>470</v>
       </c>
@@ -10390,17 +10391,17 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:S2"/>
@@ -10471,19 +10472,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>